--- a/alloc_maxsharpe.xlsx
+++ b/alloc_maxsharpe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>JSWSTEEL.NS</t>
+          <t>TATACONSUM.NS</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>TATACONSUM.NS</t>
+          <t>AXISBANK.NS</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>UPL.NS</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>KOTAKBANK.NS</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>TATAMOTORS.NS</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>BAJAJFINSV.NS</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>LT.NS</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>NESTLEIND.NS</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>TITAN.NS</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>HINDUNILVR.NS</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>HINDALCO.NS</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
         </is>
       </c>
     </row>
@@ -452,10 +507,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50.97</v>
+        <v>12.14</v>
       </c>
       <c r="C2" t="n">
-        <v>49.03</v>
+        <v>1.06</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="H2" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="J2" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M2" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7.81</v>
       </c>
     </row>
   </sheetData>
